--- a/Tester Results/TEST_SEX.xlsx
+++ b/Tester Results/TEST_SEX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,11 +484,6 @@
           <t>test</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>dunn_d</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -498,38 +493,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.7465977708004</v>
+        <v>574.5</v>
       </c>
       <c r="D2" t="n">
-        <v>1.03740779791123e-25</v>
+        <v>4.731507720099267e-08</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>3.222884243660665</v>
+        <v>0.6059670781893004</v>
       </c>
       <c r="G2" t="n">
-        <v>4.884981308350689e-14</v>
+        <v>4.649771442666329e-08</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.4351901205412783</v>
+        <v>-1.046296296296299</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>t-test</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -539,38 +533,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15.34565694321051</v>
+        <v>1702</v>
       </c>
       <c r="D3" t="n">
-        <v>1.345197545804637e-23</v>
+        <v>0.122235035799038</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.953273055684746</v>
+        <v>-0.1673525377229081</v>
       </c>
       <c r="G3" t="n">
-        <v>4.884981308350689e-14</v>
+        <v>0.121469863914346</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.4460915758427802</v>
+        <v>0.7339506172839521</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>t-test</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -580,38 +573,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-6.609416903202073</v>
+        <v>2104</v>
       </c>
       <c r="D4" t="n">
-        <v>3.943414410860732e-09</v>
+        <v>6.944883517617799e-05</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.271982876083393</v>
+        <v>-0.4430727023319616</v>
       </c>
       <c r="G4" t="n">
-        <v>1.596928589364666e-09</v>
+        <v>6.855448672896294e-05</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>-0.1943163045959205</v>
+        <v>1.780246913580246</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>t-test</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -621,38 +613,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12.85618769744613</v>
+        <v>2881</v>
       </c>
       <c r="D5" t="n">
-        <v>5.834793732709803e-20</v>
+        <v>2.319259952975573e-18</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>2.474174475957627</v>
+        <v>-0.9759945130315502</v>
       </c>
       <c r="G5" t="n">
-        <v>4.884981308350689e-14</v>
+        <v>2.257024464666691e-18</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.4116548919890141</v>
+        <v>61.07962962962966</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>t-test</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -662,23 +653,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>574.5</v>
+        <v>2869</v>
       </c>
       <c r="D6" t="n">
-        <v>4.731507720099267e-08</v>
+        <v>4.44515293518166e-18</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6059670781893004</v>
+        <v>-0.9677640603566529</v>
       </c>
       <c r="G6" t="n">
-        <v>4.649771442666329e-08</v>
+        <v>4.32684049725133e-18</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -686,15 +677,12 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>-1.046296296296299</v>
+        <v>16.35589506172839</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>mannwhitneyu</t>
         </is>
-      </c>
-      <c r="K6" t="n">
-        <v>0.6059670781893004</v>
       </c>
     </row>
     <row r="7">
@@ -705,23 +693,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1702</v>
+        <v>554</v>
       </c>
       <c r="D7" t="n">
-        <v>0.122235035799038</v>
+        <v>2.831991584422178e-08</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1673525377229081</v>
+        <v>0.6200274348422496</v>
       </c>
       <c r="G7" t="n">
-        <v>0.121469863914346</v>
+        <v>2.782633665191067e-08</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -729,15 +717,12 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.7339506172839521</v>
+        <v>-21.61515123456792</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>mannwhitneyu</t>
         </is>
-      </c>
-      <c r="K7" t="n">
-        <v>-0.1673525377229081</v>
       </c>
     </row>
     <row r="8">
@@ -748,23 +733,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2104</v>
+        <v>2802</v>
       </c>
       <c r="D8" t="n">
-        <v>6.944883517617799e-05</v>
+        <v>1.518005587749135e-16</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4430727023319616</v>
+        <v>-0.9218106995884774</v>
       </c>
       <c r="G8" t="n">
-        <v>6.855448672896294e-05</v>
+        <v>1.479448290688163e-16</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -772,15 +757,12 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1.780246913580246</v>
+        <v>5809.321388888889</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>mannwhitneyu</t>
         </is>
-      </c>
-      <c r="K8" t="n">
-        <v>-0.4430727023319616</v>
       </c>
     </row>
     <row r="9">
@@ -791,38 +773,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7.270642607392214</v>
+        <v>1575.5</v>
       </c>
       <c r="D9" t="n">
-        <v>1.342304743169228e-10</v>
+        <v>0.4525480764086293</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.399235822186486</v>
+        <v>-0.08058984910836764</v>
       </c>
       <c r="G9" t="n">
-        <v>6.410894037855996e-11</v>
+        <v>0.4506187202122447</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.3346555823834745</v>
+        <v>0.2765432098765412</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>t-test</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -832,38 +813,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.571714799443079</v>
+        <v>1183.5</v>
       </c>
       <c r="D10" t="n">
-        <v>1.471228666622738e-05</v>
+        <v>0.08026984395540572</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8798269233722191</v>
+        <v>0.1882716049382716</v>
       </c>
       <c r="G10" t="n">
-        <v>1.315534289336728e-05</v>
+        <v>0.07971977066430727</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.2326671662252058</v>
+        <v>-0.8339506172839535</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>t-test</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -873,38 +853,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-6.935457056558364</v>
+        <v>1277.5</v>
       </c>
       <c r="D11" t="n">
-        <v>1.277682375151997e-09</v>
+        <v>0.2659278918781623</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.334729332852354</v>
+        <v>0.1237997256515775</v>
       </c>
       <c r="G11" t="n">
-        <v>3.313472829447051e-10</v>
+        <v>0.2646022141905987</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>-0.3245756932992163</v>
+        <v>-1.110493827160496</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>t-test</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -914,38 +893,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.07151448171533</v>
+        <v>2317</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0409912575310323</v>
+        <v>1.327251541174455e-07</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3986631478828512</v>
+        <v>-0.5891632373113855</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04073852240501652</v>
+        <v>1.30519562593372e-07</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.1058263819093337</v>
+        <v>82.85648148148147</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>t-test</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -955,23 +933,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1575.5</v>
+        <v>2175</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4525480764086293</v>
+        <v>1.070083676788224e-05</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.08058984910836764</v>
+        <v>-0.4917695473251029</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4506187202122447</v>
+        <v>1.055027958128037e-05</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -979,15 +957,12 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.2765432098765412</v>
+        <v>17.32320679012345</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>mannwhitneyu</t>
         </is>
-      </c>
-      <c r="K13" t="n">
-        <v>-0.08058984910836764</v>
       </c>
     </row>
     <row r="14">
@@ -998,23 +973,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1183.5</v>
+        <v>619</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08026984395540572</v>
+        <v>2.57546540999095e-07</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1882716049382716</v>
+        <v>0.575445816186557</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07971977066430727</v>
+        <v>2.533594612822144e-07</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1022,15 +997,12 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>-0.8339506172839535</v>
+        <v>-42.61480246913578</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>mannwhitneyu</t>
         </is>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1882716049382716</v>
       </c>
     </row>
     <row r="15">
@@ -1041,23 +1013,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1277.5</v>
+        <v>1869</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2659278918781623</v>
+        <v>0.011659015939608</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1237997256515775</v>
+        <v>-0.2818930041152263</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2646022141905987</v>
+        <v>0.01155757319139736</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1065,15 +1037,12 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>-1.110493827160496</v>
+        <v>4660.227651234569</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>mannwhitneyu</t>
         </is>
-      </c>
-      <c r="K15" t="n">
-        <v>0.1237997256515775</v>
       </c>
     </row>
     <row r="16">
@@ -1084,38 +1053,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>12.77971734315089</v>
+        <v>1113</v>
       </c>
       <c r="D16" t="n">
-        <v>2.566305893586793e-22</v>
+        <v>0.03027169445723122</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>2.459457749411832</v>
+        <v>0.2366255144032922</v>
       </c>
       <c r="G16" t="n">
-        <v>4.884981308350689e-14</v>
+        <v>0.03003249573877194</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0.4058505462041717</v>
+        <v>-0.4185185185185176</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>t-test</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1125,38 +1093,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8.41374472842835</v>
+        <v>916.5</v>
       </c>
       <c r="D17" t="n">
-        <v>2.127740658044723e-13</v>
+        <v>0.0006033293714184281</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1.619225927950301</v>
+        <v>0.3713991769547325</v>
       </c>
       <c r="G17" t="n">
-        <v>2.515765373800605e-13</v>
+        <v>0.0005963184172090454</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0.3065062332270371</v>
+        <v>-1.617901234567899</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>t-test</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1166,38 +1133,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-5.985044419841281</v>
+        <v>1190</v>
       </c>
       <c r="D18" t="n">
-        <v>3.580441969202101e-08</v>
+        <v>0.09812993066764997</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.151822335635744</v>
+        <v>0.1838134430727023</v>
       </c>
       <c r="G18" t="n">
-        <v>2.984540581341122e-08</v>
+        <v>0.09750336954318142</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>-0.3131860496869894</v>
+        <v>-1.199382716049378</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>t-test</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1207,38 +1173,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.741202526825341</v>
+        <v>2794.5</v>
       </c>
       <c r="D19" t="n">
-        <v>8.362908199969264e-06</v>
+        <v>2.228994531060003e-16</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9124448517150483</v>
+        <v>-0.9166666666666667</v>
       </c>
       <c r="G19" t="n">
-        <v>6.647095064371555e-06</v>
+        <v>2.172680496951096e-16</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0.2026124575589049</v>
+        <v>63.34475308641974</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>t-test</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1248,23 +1213,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1113</v>
+        <v>2526</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03027169445723122</v>
+        <v>5.408245471040276e-11</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2366255144032922</v>
+        <v>-0.7325102880658436</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03003249573877194</v>
+        <v>5.297948848634982e-11</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1272,15 +1237,12 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>-0.4185185185185176</v>
+        <v>12.87881172839507</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>mannwhitneyu</t>
         </is>
-      </c>
-      <c r="K20" t="n">
-        <v>0.2366255144032922</v>
       </c>
     </row>
     <row r="21">
@@ -1291,23 +1253,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>916.5</v>
+        <v>608</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0006033293714184281</v>
+        <v>1.791962740654362e-07</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3713991769547325</v>
+        <v>0.5829903978052127</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0005963184172090454</v>
+        <v>1.762475032654718e-07</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1315,15 +1277,12 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>-1.617901234567899</v>
+        <v>-48.5032098765432</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>mannwhitneyu</t>
         </is>
-      </c>
-      <c r="K21" t="n">
-        <v>0.3713991769547325</v>
       </c>
     </row>
     <row r="22">
@@ -1334,23 +1293,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1190</v>
+        <v>2040</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09812993066764997</v>
+        <v>0.0003529112438522091</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1838134430727023</v>
+        <v>-0.3991769547325104</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09750336954318142</v>
+        <v>0.0003487918400231757</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1358,15 +1317,12 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>-1.199382716049378</v>
+        <v>3766.802524691362</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>mannwhitneyu</t>
         </is>
-      </c>
-      <c r="K22" t="n">
-        <v>0.1838134430727023</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/TEST_SEX.xlsx
+++ b/Tester Results/TEST_SEX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,23 +653,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2869</v>
+        <v>2877</v>
       </c>
       <c r="D6" t="n">
-        <v>4.44515293518166e-18</v>
+        <v>2.884212834002263e-18</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.9677640603566529</v>
+        <v>-0.9732510288065843</v>
       </c>
       <c r="G6" t="n">
-        <v>4.32684049725133e-18</v>
+        <v>2.807028087117912e-18</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>16.35589506172839</v>
+        <v>60.19589197530862</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -693,23 +693,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>554</v>
+        <v>2885</v>
       </c>
       <c r="D7" t="n">
-        <v>2.831991584422178e-08</v>
+        <v>1.866605974512797e-18</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6200274348422496</v>
+        <v>-0.9787379972565158</v>
       </c>
       <c r="G7" t="n">
-        <v>2.782633665191067e-08</v>
+        <v>1.81638252918028e-18</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>-21.61515123456792</v>
+        <v>55.2799290123457</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -733,23 +733,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2802</v>
+        <v>2872</v>
       </c>
       <c r="D8" t="n">
-        <v>1.518005587749135e-16</v>
+        <v>3.781029645574401e-18</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.9218106995884774</v>
+        <v>-0.9698216735253773</v>
       </c>
       <c r="G8" t="n">
-        <v>1.479448290688163e-16</v>
+        <v>3.680188165359569e-18</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>5809.321388888889</v>
+        <v>25.16766975308641</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -768,28 +768,28 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1575.5</v>
+        <v>554</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4525480764086293</v>
+        <v>2.831991584422178e-08</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.08058984910836764</v>
+        <v>0.6200274348422496</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4506187202122447</v>
+        <v>2.782633665191067e-08</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.2765432098765412</v>
+        <v>-21.61515123456792</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -808,28 +808,28 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1183.5</v>
+        <v>2802</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08026984395540572</v>
+        <v>1.518005587749135e-16</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1882716049382716</v>
+        <v>-0.9218106995884774</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07971977066430727</v>
+        <v>1.479448290688163e-16</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>-0.8339506172839535</v>
+        <v>5809.321388888889</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -848,28 +848,28 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1277.5</v>
+        <v>1254.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2659278918781623</v>
+        <v>0.7607298621822173</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1237997256515775</v>
+        <v>0.03537101114955787</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2646022141905987</v>
+        <v>0.7581820990853094</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>-1.110493827160496</v>
+        <v>-0.1354901960784307</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -893,23 +893,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2317</v>
+        <v>1575.5</v>
       </c>
       <c r="D12" t="n">
-        <v>1.327251541174455e-07</v>
+        <v>0.4525480764086293</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5891632373113855</v>
+        <v>-0.08058984910836764</v>
       </c>
       <c r="G12" t="n">
-        <v>1.30519562593372e-07</v>
+        <v>0.4506187202122447</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>82.85648148148147</v>
+        <v>0.2765432098765412</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -933,23 +933,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2175</v>
+        <v>1183.5</v>
       </c>
       <c r="D13" t="n">
-        <v>1.070083676788224e-05</v>
+        <v>0.08026984395540572</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4917695473251029</v>
+        <v>0.1882716049382716</v>
       </c>
       <c r="G13" t="n">
-        <v>1.055027958128037e-05</v>
+        <v>0.07971977066430727</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>17.32320679012345</v>
+        <v>-0.8339506172839535</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -973,23 +973,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>619</v>
+        <v>1277.5</v>
       </c>
       <c r="D14" t="n">
-        <v>2.57546540999095e-07</v>
+        <v>0.2659278918781623</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.575445816186557</v>
+        <v>0.1237997256515775</v>
       </c>
       <c r="G14" t="n">
-        <v>2.533594612822144e-07</v>
+        <v>0.2646022141905987</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>-42.61480246913578</v>
+        <v>-1.110493827160496</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1013,23 +1013,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1869</v>
+        <v>2317</v>
       </c>
       <c r="D15" t="n">
-        <v>0.011659015939608</v>
+        <v>1.327251541174455e-07</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2818930041152263</v>
+        <v>-0.5891632373113855</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01155757319139736</v>
+        <v>1.30519562593372e-07</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4660.227651234569</v>
+        <v>82.85648148148147</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1048,28 +1048,28 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1113</v>
+        <v>2319</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03027169445723122</v>
+        <v>1.241305380257165e-07</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2366255144032922</v>
+        <v>-0.5905349794238683</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03003249573877194</v>
+        <v>1.220633174046926e-07</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>-0.4185185185185176</v>
+        <v>82.51222222222225</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1088,28 +1088,28 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>916.5</v>
+        <v>2343.5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0006033293714184281</v>
+        <v>5.392470860916908e-08</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3713991769547325</v>
+        <v>-0.6073388203017833</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0005963184172090454</v>
+        <v>5.30028577115715e-08</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>-1.617901234567899</v>
+        <v>75.19940740740741</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1128,28 +1128,28 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1190</v>
+        <v>2205</v>
       </c>
       <c r="D18" t="n">
-        <v>0.09812993066764997</v>
+        <v>4.500090349749989e-06</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1838134430727023</v>
+        <v>-0.5123456790123457</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09750336954318142</v>
+        <v>4.434361310049826e-06</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>-1.199382716049378</v>
+        <v>27.42148148148146</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1168,28 +1168,28 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2794.5</v>
+        <v>619</v>
       </c>
       <c r="D19" t="n">
-        <v>2.228994531060003e-16</v>
+        <v>2.57546540999095e-07</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9166666666666667</v>
+        <v>0.575445816186557</v>
       </c>
       <c r="G19" t="n">
-        <v>2.172680496951096e-16</v>
+        <v>2.533594612822144e-07</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>63.34475308641974</v>
+        <v>-42.61480246913578</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1208,28 +1208,28 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2526</v>
+        <v>1869</v>
       </c>
       <c r="D20" t="n">
-        <v>5.408245471040276e-11</v>
+        <v>0.011659015939608</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.7325102880658436</v>
+        <v>-0.2818930041152263</v>
       </c>
       <c r="G20" t="n">
-        <v>5.297948848634982e-11</v>
+        <v>0.01155757319139736</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>12.87881172839507</v>
+        <v>4660.227651234569</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1248,28 +1248,28 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>608</v>
+        <v>1254.5</v>
       </c>
       <c r="D21" t="n">
-        <v>1.791962740654362e-07</v>
+        <v>0.7607298621822173</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5829903978052127</v>
+        <v>0.03537101114955787</v>
       </c>
       <c r="G21" t="n">
-        <v>1.762475032654718e-07</v>
+        <v>0.7581820990853094</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>-48.5032098765432</v>
+        <v>-0.1354901960784307</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1293,33 +1293,393 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>reactionTime</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1113</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.03027169445723122</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2366255144032922</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03003249573877194</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.4185185185185176</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>peakTime</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>917.5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0006175820052564793</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3707133058984911</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0006104169787455497</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>-1.306790123456789</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>difference</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1191</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.09939269954129346</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1831275720164609</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.09875970386147652</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.888271604938268</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>peakValue</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2794.5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.228994531060003e-16</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.9166666666666667</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.172680496951096e-16</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>63.34845679012345</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2796.5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.013005462562422e-16</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.9180384087791496</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.962075884779701e-16</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>63.26135802469136</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2783</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4.007498468993686e-16</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.9087791495198903</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.907090034309249e-16</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>57.8321790123457</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2531.5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.309694894180837e-11</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.7362825788751715</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4.221373332577704e-11</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>20.13209567901237</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>608</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.791962740654362e-07</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.5829903978052127</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.762475032654718e-07</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>-50.29746913580246</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>AUC</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C30" t="n">
         <v>2040</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D30" t="n">
         <v>0.0003529112438522091</v>
       </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
         <v>-0.3991769547325104</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G30" t="n">
         <v>0.0003487918400231757</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>3766.802524691362</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>3762.502487654325</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1254.5</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.7607298621822173</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.03537101114955787</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.7581820990853094</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.1354901960784307</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>mannwhitneyu</t>
         </is>

--- a/Tester Results/TEST_SEX.xlsx
+++ b/Tester Results/TEST_SEX.xlsx
@@ -497,19 +497,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>574.5</v>
+        <v>576.5</v>
       </c>
       <c r="D2" t="n">
-        <v>4.731507720099267e-08</v>
+        <v>5.150353814706688e-08</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6059670781893004</v>
+        <v>0.6045953360768175</v>
       </c>
       <c r="G2" t="n">
-        <v>4.649771442666329e-08</v>
+        <v>5.061655027773836e-08</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-1.046296296296299</v>
+        <v>-1.037654320987658</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -537,19 +537,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1702</v>
+        <v>1682</v>
       </c>
       <c r="D3" t="n">
-        <v>0.122235035799038</v>
+        <v>0.1542212247359029</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1673525377229081</v>
+        <v>-0.1536351165980796</v>
       </c>
       <c r="G3" t="n">
-        <v>0.121469863914346</v>
+        <v>0.153301652563316</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.7339506172839521</v>
+        <v>0.4580246913580233</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2104</v>
+        <v>2136</v>
       </c>
       <c r="D4" t="n">
-        <v>6.944883517617799e-05</v>
+        <v>2.880647972041379e-05</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4430727023319616</v>
+        <v>-0.4650205761316872</v>
       </c>
       <c r="G4" t="n">
-        <v>6.855448672896294e-05</v>
+        <v>2.841773355574892e-05</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1.780246913580246</v>
+        <v>1.495679012345679</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -617,19 +617,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2881</v>
+        <v>2854.5</v>
       </c>
       <c r="D5" t="n">
-        <v>2.319259952975573e-18</v>
+        <v>9.678486647904019e-18</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.9759945130315502</v>
+        <v>-0.9578189300411524</v>
       </c>
       <c r="G5" t="n">
-        <v>2.257024464666691e-18</v>
+        <v>9.42342920489463e-18</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>61.07962962962966</v>
+        <v>60.04753086419756</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -657,19 +657,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2877</v>
+        <v>2853</v>
       </c>
       <c r="D6" t="n">
-        <v>2.884212834002263e-18</v>
+        <v>1.04889621551362e-17</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.9732510288065843</v>
+        <v>-0.9567901234567902</v>
       </c>
       <c r="G6" t="n">
-        <v>2.807028087117912e-18</v>
+        <v>1.021283432864433e-17</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>60.19589197530862</v>
+        <v>59.12571913580246</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2885</v>
+        <v>2866</v>
       </c>
       <c r="D7" t="n">
-        <v>1.866605974512797e-18</v>
+        <v>5.226067220864501e-18</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.9787379972565158</v>
+        <v>-0.9657064471879286</v>
       </c>
       <c r="G7" t="n">
-        <v>1.81638252918028e-18</v>
+        <v>5.08725509656132e-18</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>55.2799290123457</v>
+        <v>53.91857098765431</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2872</v>
+        <v>2845</v>
       </c>
       <c r="D8" t="n">
-        <v>3.781029645574401e-18</v>
+        <v>1.605320678494065e-17</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.9698216735253773</v>
+        <v>-0.9513031550068587</v>
       </c>
       <c r="G8" t="n">
-        <v>3.680188165359569e-18</v>
+        <v>1.56329278217132e-17</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>25.16766975308641</v>
+        <v>24.69727469135803</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -777,19 +777,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>554</v>
+        <v>589</v>
       </c>
       <c r="D9" t="n">
-        <v>2.831991584422178e-08</v>
+        <v>9.477762264294651e-08</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6200274348422496</v>
+        <v>0.5960219478737998</v>
       </c>
       <c r="G9" t="n">
-        <v>2.782633665191067e-08</v>
+        <v>9.318557584418367e-08</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>-21.61515123456792</v>
+        <v>-20.46304320987653</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -817,19 +817,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2802</v>
+        <v>2769</v>
       </c>
       <c r="D10" t="n">
-        <v>1.518005587749135e-16</v>
+        <v>8.124391648480844e-16</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9218106995884774</v>
+        <v>-0.8991769547325104</v>
       </c>
       <c r="G10" t="n">
-        <v>1.479448290688163e-16</v>
+        <v>7.922898140401274e-16</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>5809.321388888889</v>
+        <v>5741.291824074073</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -897,19 +897,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1575.5</v>
+        <v>1585.5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4525480764086293</v>
+        <v>0.4104877596805883</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.08058984910836764</v>
+        <v>-0.08744855967078191</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4506187202122447</v>
+        <v>0.4086476132740656</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.2765432098765412</v>
+        <v>0.2487654320987644</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1183.5</v>
+        <v>1147.5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08026984395540572</v>
+        <v>0.04662743739202063</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1882716049382716</v>
+        <v>0.2129629629629629</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07971977066430727</v>
+        <v>0.04627481969884838</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>-0.8339506172839535</v>
+        <v>-1.063580246913581</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -977,19 +977,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1277.5</v>
+        <v>1256</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2659278918781623</v>
+        <v>0.2115126764908224</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1237997256515775</v>
+        <v>0.1385459533607681</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2646022141905987</v>
+        <v>0.210381514588814</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>-1.110493827160496</v>
+        <v>-1.312345679012346</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1017,19 +1017,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2317</v>
+        <v>2291.5</v>
       </c>
       <c r="D15" t="n">
-        <v>1.327251541174455e-07</v>
+        <v>3.081668371211657e-07</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5891632373113855</v>
+        <v>-0.5716735253772292</v>
       </c>
       <c r="G15" t="n">
-        <v>1.30519562593372e-07</v>
+        <v>3.031871962272122e-07</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>82.85648148148147</v>
+        <v>81.23024691358025</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1057,19 +1057,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2319</v>
+        <v>2294</v>
       </c>
       <c r="D16" t="n">
-        <v>1.241305380257165e-07</v>
+        <v>2.841082786894367e-07</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5905349794238683</v>
+        <v>-0.5733882030178326</v>
       </c>
       <c r="G16" t="n">
-        <v>1.220633174046926e-07</v>
+        <v>2.795047045417298e-07</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>82.51222222222225</v>
+        <v>81.00806481481484</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1097,19 +1097,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2343.5</v>
+        <v>2325.5</v>
       </c>
       <c r="D17" t="n">
-        <v>5.392470860916908e-08</v>
+        <v>9.970638347097092e-08</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6073388203017833</v>
+        <v>-0.5949931412894376</v>
       </c>
       <c r="G17" t="n">
-        <v>5.30028577115715e-08</v>
+        <v>9.803423152839662e-08</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>75.19940740740741</v>
+        <v>73.33494135802469</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1137,19 +1137,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2205</v>
+        <v>2190</v>
       </c>
       <c r="D18" t="n">
-        <v>4.500090349749989e-06</v>
+        <v>6.967746673021748e-06</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5123456790123457</v>
+        <v>-0.5020576131687242</v>
       </c>
       <c r="G18" t="n">
-        <v>4.434361310049826e-06</v>
+        <v>6.867844716105617e-06</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>27.42148148148146</v>
+        <v>26.92399382716048</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1177,19 +1177,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>619</v>
+        <v>668</v>
       </c>
       <c r="D19" t="n">
-        <v>2.57546540999095e-07</v>
+        <v>1.228095953271e-06</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.575445816186557</v>
+        <v>0.541838134430727</v>
       </c>
       <c r="G19" t="n">
-        <v>2.533594612822144e-07</v>
+        <v>1.209211563612814e-06</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>-42.61480246913578</v>
+        <v>-40.2244475308642</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1217,19 +1217,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1869</v>
+        <v>1857</v>
       </c>
       <c r="D20" t="n">
-        <v>0.011659015939608</v>
+        <v>0.0143425869300039</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2818930041152263</v>
+        <v>-0.2736625514403292</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01155757319139736</v>
+        <v>0.01422072759186364</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>4660.227651234569</v>
+        <v>4646.965021604939</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1297,19 +1297,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1113</v>
+        <v>1151.5</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03027169445723122</v>
+        <v>0.05429000028793213</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2366255144032922</v>
+        <v>0.2102194787379973</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03003249573877194</v>
+        <v>0.05389741447134423</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>-0.4185185185185176</v>
+        <v>-0.3814814814814831</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1337,19 +1337,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>917.5</v>
+        <v>1020</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0006175820052564793</v>
+        <v>0.004727145605948223</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3707133058984911</v>
+        <v>0.3004115226337448</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0006104169787455497</v>
+        <v>0.004679728694242885</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>-1.306790123456789</v>
+        <v>-1.276543209876543</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1377,19 +1377,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1191</v>
+        <v>1202</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09939269954129346</v>
+        <v>0.1140553407777521</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1831275720164609</v>
+        <v>0.1755829903978052</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09875970386147652</v>
+        <v>0.1133491274571172</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>-0.888271604938268</v>
+        <v>-0.8950617283950599</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1417,19 +1417,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2794.5</v>
+        <v>2765.5</v>
       </c>
       <c r="D25" t="n">
-        <v>2.228994531060003e-16</v>
+        <v>9.675793078764738e-16</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.9166666666666667</v>
+        <v>-0.8967764060356653</v>
       </c>
       <c r="G25" t="n">
-        <v>2.172680496951096e-16</v>
+        <v>9.43643222885505e-16</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>63.34845679012345</v>
+        <v>62.75154320987654</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1457,19 +1457,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2796.5</v>
+        <v>2762.5</v>
       </c>
       <c r="D26" t="n">
-        <v>2.013005462562422e-16</v>
+        <v>1.124977502221397e-15</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.9180384087791496</v>
+        <v>-0.8947187928669411</v>
       </c>
       <c r="G26" t="n">
-        <v>1.962075884779701e-16</v>
+        <v>1.097209449089554e-15</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>63.26135802469136</v>
+        <v>62.66707407407404</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1497,19 +1497,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2783</v>
+        <v>2751</v>
       </c>
       <c r="D27" t="n">
-        <v>4.007498468993686e-16</v>
+        <v>1.994085701096179e-15</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.9087791495198903</v>
+        <v>-0.8868312757201646</v>
       </c>
       <c r="G27" t="n">
-        <v>3.907090034309249e-16</v>
+        <v>1.94528167085516e-15</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>57.8321790123457</v>
+        <v>57.49037962962964</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1537,19 +1537,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2531.5</v>
+        <v>2482.5</v>
       </c>
       <c r="D28" t="n">
-        <v>4.309694894180837e-11</v>
+        <v>3.135217188643167e-10</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.7362825788751715</v>
+        <v>-0.7026748971193415</v>
       </c>
       <c r="G28" t="n">
-        <v>4.221373332577704e-11</v>
+        <v>3.073746726372665e-10</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>20.13209567901237</v>
+        <v>19.9747962962963</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1577,19 +1577,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>608</v>
+        <v>651</v>
       </c>
       <c r="D29" t="n">
-        <v>1.791962740654362e-07</v>
+        <v>7.214238235572668e-07</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5829903978052127</v>
+        <v>0.5534979423868313</v>
       </c>
       <c r="G29" t="n">
-        <v>1.762475032654718e-07</v>
+        <v>7.101102885258466e-07</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>-50.29746913580246</v>
+        <v>-49.31295370370367</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1617,19 +1617,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2040</v>
+        <v>1986</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0003529112438522091</v>
+        <v>0.001190268706429939</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.3991769547325104</v>
+        <v>-0.3621399176954732</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0003487918400231757</v>
+        <v>0.001177503843041744</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3762.502487654325</v>
+        <v>3763.752459876543</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>

--- a/Tester Results/TEST_SEX.xlsx
+++ b/Tester Results/TEST_SEX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,28 +848,28 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1254.5</v>
+        <v>1585.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7607298621822173</v>
+        <v>0.4104877596805883</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03537101114955787</v>
+        <v>-0.08744855967078191</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7581820990853094</v>
+        <v>0.4086476132740656</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>-0.1354901960784307</v>
+        <v>0.2487654320987644</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -893,23 +893,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1585.5</v>
+        <v>1147.5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4104877596805883</v>
+        <v>0.04662743739202063</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.08744855967078191</v>
+        <v>0.2129629629629629</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4086476132740656</v>
+        <v>0.04627481969884838</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.2487654320987644</v>
+        <v>-1.063580246913581</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -933,23 +933,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1147.5</v>
+        <v>1256</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04662743739202063</v>
+        <v>0.2115126764908224</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2129629629629629</v>
+        <v>0.1385459533607681</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04627481969884838</v>
+        <v>0.210381514588814</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>-1.063580246913581</v>
+        <v>-1.312345679012346</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -973,23 +973,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1256</v>
+        <v>2291.5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2115126764908224</v>
+        <v>3.081668371211657e-07</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1385459533607681</v>
+        <v>-0.5716735253772292</v>
       </c>
       <c r="G14" t="n">
-        <v>0.210381514588814</v>
+        <v>3.031871962272122e-07</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>-1.312345679012346</v>
+        <v>81.23024691358025</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1013,23 +1013,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2291.5</v>
+        <v>2294</v>
       </c>
       <c r="D15" t="n">
-        <v>3.081668371211657e-07</v>
+        <v>2.841082786894367e-07</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5716735253772292</v>
+        <v>-0.5733882030178326</v>
       </c>
       <c r="G15" t="n">
-        <v>3.031871962272122e-07</v>
+        <v>2.795047045417298e-07</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>81.23024691358025</v>
+        <v>81.00806481481484</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1053,23 +1053,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2294</v>
+        <v>2325.5</v>
       </c>
       <c r="D16" t="n">
-        <v>2.841082786894367e-07</v>
+        <v>9.970638347097092e-08</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5733882030178326</v>
+        <v>-0.5949931412894376</v>
       </c>
       <c r="G16" t="n">
-        <v>2.795047045417298e-07</v>
+        <v>9.803423152839662e-08</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>81.00806481481484</v>
+        <v>73.33494135802469</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1093,23 +1093,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2325.5</v>
+        <v>2190</v>
       </c>
       <c r="D17" t="n">
-        <v>9.970638347097092e-08</v>
+        <v>6.967746673021748e-06</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5949931412894376</v>
+        <v>-0.5020576131687242</v>
       </c>
       <c r="G17" t="n">
-        <v>9.803423152839662e-08</v>
+        <v>6.867844716105617e-06</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>73.33494135802469</v>
+        <v>26.92399382716048</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1133,23 +1133,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2190</v>
+        <v>668</v>
       </c>
       <c r="D18" t="n">
-        <v>6.967746673021748e-06</v>
+        <v>1.228095953271e-06</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5020576131687242</v>
+        <v>0.541838134430727</v>
       </c>
       <c r="G18" t="n">
-        <v>6.867844716105617e-06</v>
+        <v>1.209211563612814e-06</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>26.92399382716048</v>
+        <v>-40.2244475308642</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1173,23 +1173,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>668</v>
+        <v>1857</v>
       </c>
       <c r="D19" t="n">
-        <v>1.228095953271e-06</v>
+        <v>0.0143425869300039</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.541838134430727</v>
+        <v>-0.2736625514403292</v>
       </c>
       <c r="G19" t="n">
-        <v>1.209211563612814e-06</v>
+        <v>0.01422072759186364</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>-40.2244475308642</v>
+        <v>4646.965021604939</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1208,28 +1208,28 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1857</v>
+        <v>1151.5</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0143425869300039</v>
+        <v>0.05429000028793213</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2736625514403292</v>
+        <v>0.2102194787379973</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01422072759186364</v>
+        <v>0.05389741447134423</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>4646.965021604939</v>
+        <v>-0.3814814814814831</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1248,28 +1248,28 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1254.5</v>
+        <v>1020</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7607298621822173</v>
+        <v>0.004727145605948223</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03537101114955787</v>
+        <v>0.3004115226337448</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7581820990853094</v>
+        <v>0.004679728694242885</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>-0.1354901960784307</v>
+        <v>-1.276543209876543</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1293,23 +1293,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1151.5</v>
+        <v>1202</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05429000028793213</v>
+        <v>0.1140553407777521</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2102194787379973</v>
+        <v>0.1755829903978052</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05389741447134423</v>
+        <v>0.1133491274571172</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>-0.3814814814814831</v>
+        <v>-0.8950617283950599</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1333,23 +1333,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1020</v>
+        <v>2765.5</v>
       </c>
       <c r="D23" t="n">
-        <v>0.004727145605948223</v>
+        <v>9.675793078764738e-16</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3004115226337448</v>
+        <v>-0.8967764060356653</v>
       </c>
       <c r="G23" t="n">
-        <v>0.004679728694242885</v>
+        <v>9.43643222885505e-16</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>-1.276543209876543</v>
+        <v>62.75154320987654</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1373,23 +1373,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1202</v>
+        <v>2762.5</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1140553407777521</v>
+        <v>1.124977502221397e-15</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1755829903978052</v>
+        <v>-0.8947187928669411</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1133491274571172</v>
+        <v>1.097209449089554e-15</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>-0.8950617283950599</v>
+        <v>62.66707407407404</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1413,23 +1413,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2765.5</v>
+        <v>2751</v>
       </c>
       <c r="D25" t="n">
-        <v>9.675793078764738e-16</v>
+        <v>1.994085701096179e-15</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.8967764060356653</v>
+        <v>-0.8868312757201646</v>
       </c>
       <c r="G25" t="n">
-        <v>9.43643222885505e-16</v>
+        <v>1.94528167085516e-15</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>62.75154320987654</v>
+        <v>57.49037962962964</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1453,23 +1453,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2762.5</v>
+        <v>2482.5</v>
       </c>
       <c r="D26" t="n">
-        <v>1.124977502221397e-15</v>
+        <v>3.135217188643167e-10</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.8947187928669411</v>
+        <v>-0.7026748971193415</v>
       </c>
       <c r="G26" t="n">
-        <v>1.097209449089554e-15</v>
+        <v>3.073746726372665e-10</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>62.66707407407404</v>
+        <v>19.9747962962963</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1493,23 +1493,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2751</v>
+        <v>651</v>
       </c>
       <c r="D27" t="n">
-        <v>1.994085701096179e-15</v>
+        <v>7.214238235572668e-07</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.8868312757201646</v>
+        <v>0.5534979423868313</v>
       </c>
       <c r="G27" t="n">
-        <v>1.94528167085516e-15</v>
+        <v>7.101102885258466e-07</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>57.49037962962964</v>
+        <v>-49.31295370370367</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1533,23 +1533,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2482.5</v>
+        <v>1986</v>
       </c>
       <c r="D28" t="n">
-        <v>3.135217188643167e-10</v>
+        <v>0.001190268706429939</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.7026748971193415</v>
+        <v>-0.3621399176954732</v>
       </c>
       <c r="G28" t="n">
-        <v>3.073746726372665e-10</v>
+        <v>0.001177503843041744</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1557,129 +1557,9 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>19.9747962962963</v>
+        <v>3763.752459876543</v>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>mannwhitneyu</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>651</v>
-      </c>
-      <c r="D29" t="n">
-        <v>7.214238235572668e-07</v>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.5534979423868313</v>
-      </c>
-      <c r="G29" t="n">
-        <v>7.101102885258466e-07</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>-49.31295370370367</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>mannwhitneyu</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>1986</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.001190268706429939</v>
-      </c>
-      <c r="E30" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-0.3621399176954732</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.001177503843041744</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>3763.752459876543</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>mannwhitneyu</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>1254.5</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.7607298621822173</v>
-      </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.03537101114955787</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.7581820990853094</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>-0.1354901960784307</v>
-      </c>
-      <c r="J31" t="inlineStr">
         <is>
           <t>mannwhitneyu</t>
         </is>

--- a/Tester Results/TEST_SEX.xlsx
+++ b/Tester Results/TEST_SEX.xlsx
@@ -497,19 +497,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>576.5</v>
+        <v>574.5</v>
       </c>
       <c r="D2" t="n">
-        <v>5.150353814706688e-08</v>
+        <v>4.731507720099267e-08</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6045953360768175</v>
+        <v>0.6059670781893004</v>
       </c>
       <c r="G2" t="n">
-        <v>5.061655027773836e-08</v>
+        <v>4.649771442666329e-08</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-1.037654320987658</v>
+        <v>-1.046296296296299</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -537,19 +537,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1542212247359029</v>
+        <v>0.122235035799038</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1536351165980796</v>
+        <v>-0.1673525377229081</v>
       </c>
       <c r="G3" t="n">
-        <v>0.153301652563316</v>
+        <v>0.121469863914346</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.4580246913580233</v>
+        <v>0.7339506172839521</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2136</v>
+        <v>2104</v>
       </c>
       <c r="D4" t="n">
-        <v>2.880647972041379e-05</v>
+        <v>6.944883517617799e-05</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4650205761316872</v>
+        <v>-0.4430727023319616</v>
       </c>
       <c r="G4" t="n">
-        <v>2.841773355574892e-05</v>
+        <v>6.855448672896294e-05</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1.495679012345679</v>
+        <v>1.780246913580246</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -617,19 +617,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2854.5</v>
+        <v>2881</v>
       </c>
       <c r="D5" t="n">
-        <v>9.678486647904019e-18</v>
+        <v>2.319259952975573e-18</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.9578189300411524</v>
+        <v>-0.9759945130315502</v>
       </c>
       <c r="G5" t="n">
-        <v>9.42342920489463e-18</v>
+        <v>2.257024464666691e-18</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>60.04753086419756</v>
+        <v>61.07962962962966</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -657,19 +657,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2853</v>
+        <v>2877</v>
       </c>
       <c r="D6" t="n">
-        <v>1.04889621551362e-17</v>
+        <v>2.884212834002263e-18</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.9567901234567902</v>
+        <v>-0.9732510288065843</v>
       </c>
       <c r="G6" t="n">
-        <v>1.021283432864433e-17</v>
+        <v>2.807028087117912e-18</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>59.12571913580246</v>
+        <v>60.19589197530862</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2866</v>
+        <v>2885</v>
       </c>
       <c r="D7" t="n">
-        <v>5.226067220864501e-18</v>
+        <v>1.866605974512797e-18</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.9657064471879286</v>
+        <v>-0.9787379972565158</v>
       </c>
       <c r="G7" t="n">
-        <v>5.08725509656132e-18</v>
+        <v>1.81638252918028e-18</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>53.91857098765431</v>
+        <v>55.2799290123457</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2845</v>
+        <v>2872</v>
       </c>
       <c r="D8" t="n">
-        <v>1.605320678494065e-17</v>
+        <v>3.781029645574401e-18</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.9513031550068587</v>
+        <v>-0.9698216735253773</v>
       </c>
       <c r="G8" t="n">
-        <v>1.56329278217132e-17</v>
+        <v>3.680188165359569e-18</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>24.69727469135803</v>
+        <v>25.16766975308641</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -777,19 +777,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>589</v>
+        <v>554</v>
       </c>
       <c r="D9" t="n">
-        <v>9.477762264294651e-08</v>
+        <v>2.831991584422178e-08</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5960219478737998</v>
+        <v>0.6200274348422496</v>
       </c>
       <c r="G9" t="n">
-        <v>9.318557584418367e-08</v>
+        <v>2.782633665191067e-08</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>-20.46304320987653</v>
+        <v>-21.61515123456792</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -817,19 +817,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2769</v>
+        <v>2802</v>
       </c>
       <c r="D10" t="n">
-        <v>8.124391648480844e-16</v>
+        <v>1.518005587749135e-16</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.8991769547325104</v>
+        <v>-0.9218106995884774</v>
       </c>
       <c r="G10" t="n">
-        <v>7.922898140401274e-16</v>
+        <v>1.479448290688163e-16</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>5741.291824074073</v>
+        <v>5809.321388888889</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -857,19 +857,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1585.5</v>
+        <v>1575.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4104877596805883</v>
+        <v>0.4525480764086293</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.08744855967078191</v>
+        <v>-0.08058984910836764</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4086476132740656</v>
+        <v>0.4506187202122447</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.2487654320987644</v>
+        <v>0.2765432098765412</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -897,19 +897,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1147.5</v>
+        <v>1183.5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04662743739202063</v>
+        <v>0.08026984395540572</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2129629629629629</v>
+        <v>0.1882716049382716</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04627481969884838</v>
+        <v>0.07971977066430727</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>-1.063580246913581</v>
+        <v>-0.8339506172839535</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1256</v>
+        <v>1277.5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2115126764908224</v>
+        <v>0.2659278918781623</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1385459533607681</v>
+        <v>0.1237997256515775</v>
       </c>
       <c r="G13" t="n">
-        <v>0.210381514588814</v>
+        <v>0.2646022141905987</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>-1.312345679012346</v>
+        <v>-1.110493827160496</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -977,19 +977,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2291.5</v>
+        <v>2317</v>
       </c>
       <c r="D14" t="n">
-        <v>3.081668371211657e-07</v>
+        <v>1.327251541174455e-07</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5716735253772292</v>
+        <v>-0.5891632373113855</v>
       </c>
       <c r="G14" t="n">
-        <v>3.031871962272122e-07</v>
+        <v>1.30519562593372e-07</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>81.23024691358025</v>
+        <v>82.85648148148147</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1017,19 +1017,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2294</v>
+        <v>2319</v>
       </c>
       <c r="D15" t="n">
-        <v>2.841082786894367e-07</v>
+        <v>1.241305380257165e-07</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5733882030178326</v>
+        <v>-0.5905349794238683</v>
       </c>
       <c r="G15" t="n">
-        <v>2.795047045417298e-07</v>
+        <v>1.220633174046926e-07</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>81.00806481481484</v>
+        <v>82.51222222222225</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1057,19 +1057,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2325.5</v>
+        <v>2343.5</v>
       </c>
       <c r="D16" t="n">
-        <v>9.970638347097092e-08</v>
+        <v>5.392470860916908e-08</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5949931412894376</v>
+        <v>-0.6073388203017833</v>
       </c>
       <c r="G16" t="n">
-        <v>9.803423152839662e-08</v>
+        <v>5.30028577115715e-08</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>73.33494135802469</v>
+        <v>75.19940740740741</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1097,19 +1097,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2190</v>
+        <v>2205</v>
       </c>
       <c r="D17" t="n">
-        <v>6.967746673021748e-06</v>
+        <v>4.500090349749989e-06</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5020576131687242</v>
+        <v>-0.5123456790123457</v>
       </c>
       <c r="G17" t="n">
-        <v>6.867844716105617e-06</v>
+        <v>4.434361310049826e-06</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>26.92399382716048</v>
+        <v>27.42148148148146</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1137,19 +1137,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>668</v>
+        <v>619</v>
       </c>
       <c r="D18" t="n">
-        <v>1.228095953271e-06</v>
+        <v>2.57546540999095e-07</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.541838134430727</v>
+        <v>0.575445816186557</v>
       </c>
       <c r="G18" t="n">
-        <v>1.209211563612814e-06</v>
+        <v>2.533594612822144e-07</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>-40.2244475308642</v>
+        <v>-42.61480246913578</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1177,19 +1177,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1857</v>
+        <v>1869</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0143425869300039</v>
+        <v>0.011659015939608</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2736625514403292</v>
+        <v>-0.2818930041152263</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01422072759186364</v>
+        <v>0.01155757319139736</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>4646.965021604939</v>
+        <v>4660.227651234569</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1217,19 +1217,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1151.5</v>
+        <v>1113</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05429000028793213</v>
+        <v>0.03027169445723122</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2102194787379973</v>
+        <v>0.2366255144032922</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05389741447134423</v>
+        <v>0.03003249573877194</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>-0.3814814814814831</v>
+        <v>-0.4185185185185176</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1020</v>
+        <v>917.5</v>
       </c>
       <c r="D21" t="n">
-        <v>0.004727145605948223</v>
+        <v>0.0006175820052564793</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3004115226337448</v>
+        <v>0.3707133058984911</v>
       </c>
       <c r="G21" t="n">
-        <v>0.004679728694242885</v>
+        <v>0.0006104169787455497</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>-1.276543209876543</v>
+        <v>-1.306790123456789</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1297,19 +1297,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1202</v>
+        <v>1191</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1140553407777521</v>
+        <v>0.09939269954129346</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1755829903978052</v>
+        <v>0.1831275720164609</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1133491274571172</v>
+        <v>0.09875970386147652</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>-0.8950617283950599</v>
+        <v>-0.888271604938268</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1337,19 +1337,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2765.5</v>
+        <v>2794.5</v>
       </c>
       <c r="D23" t="n">
-        <v>9.675793078764738e-16</v>
+        <v>2.228994531060003e-16</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.8967764060356653</v>
+        <v>-0.9166666666666667</v>
       </c>
       <c r="G23" t="n">
-        <v>9.43643222885505e-16</v>
+        <v>2.172680496951096e-16</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>62.75154320987654</v>
+        <v>63.34845679012345</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1377,19 +1377,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2762.5</v>
+        <v>2796.5</v>
       </c>
       <c r="D24" t="n">
-        <v>1.124977502221397e-15</v>
+        <v>2.013005462562422e-16</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.8947187928669411</v>
+        <v>-0.9180384087791496</v>
       </c>
       <c r="G24" t="n">
-        <v>1.097209449089554e-15</v>
+        <v>1.962075884779701e-16</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>62.66707407407404</v>
+        <v>63.26135802469136</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1417,19 +1417,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2751</v>
+        <v>2783</v>
       </c>
       <c r="D25" t="n">
-        <v>1.994085701096179e-15</v>
+        <v>4.007498468993686e-16</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.8868312757201646</v>
+        <v>-0.9087791495198903</v>
       </c>
       <c r="G25" t="n">
-        <v>1.94528167085516e-15</v>
+        <v>3.907090034309249e-16</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>57.49037962962964</v>
+        <v>57.8321790123457</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1457,19 +1457,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2482.5</v>
+        <v>2531.5</v>
       </c>
       <c r="D26" t="n">
-        <v>3.135217188643167e-10</v>
+        <v>4.309694894180837e-11</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.7026748971193415</v>
+        <v>-0.7362825788751715</v>
       </c>
       <c r="G26" t="n">
-        <v>3.073746726372665e-10</v>
+        <v>4.221373332577704e-11</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>19.9747962962963</v>
+        <v>20.13209567901237</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1497,19 +1497,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>651</v>
+        <v>608</v>
       </c>
       <c r="D27" t="n">
-        <v>7.214238235572668e-07</v>
+        <v>1.791962740654362e-07</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5534979423868313</v>
+        <v>0.5829903978052127</v>
       </c>
       <c r="G27" t="n">
-        <v>7.101102885258466e-07</v>
+        <v>1.762475032654718e-07</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>-49.31295370370367</v>
+        <v>-50.29746913580246</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1537,19 +1537,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1986</v>
+        <v>2040</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001190268706429939</v>
+        <v>0.0003529112438522091</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.3621399176954732</v>
+        <v>-0.3991769547325104</v>
       </c>
       <c r="G28" t="n">
-        <v>0.001177503843041744</v>
+        <v>0.0003487918400231757</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>3763.752459876543</v>
+        <v>3762.502487654325</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
